--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2090.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2090.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.973878521178134</v>
+        <v>3.131035089492798</v>
       </c>
       <c r="B1">
-        <v>3.420824824641096</v>
+        <v>2.959725141525269</v>
       </c>
       <c r="C1">
-        <v>3.045683630754808</v>
+        <v>2.603036403656006</v>
       </c>
       <c r="D1">
-        <v>3.350216335782793</v>
+        <v>2.830551624298096</v>
       </c>
       <c r="E1">
-        <v>2.045053865295727</v>
+        <v>2.888567447662354</v>
       </c>
     </row>
   </sheetData>
